--- a/DCC-Table_example_NCLSI.xlsx
+++ b/DCC-Table_example_NCLSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74C6897-BF0F-4B50-A1C9-87EC36332A1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D81657-22D3-4376-A164-50A0F2EDAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="1725" windowWidth="25560" windowHeight="14775" xr2:uid="{7B806C36-EFAF-4198-BA2F-F0EE1FD641A5}"/>
+    <workbookView xWindow="1845" yWindow="3225" windowWidth="25560" windowHeight="14775" xr2:uid="{7B806C36-EFAF-4198-BA2F-F0EE1FD641A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
@@ -2017,7 +2017,7 @@
   <cols>
     <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.54296875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/DCC-Table_example_NCLSI.xlsx
+++ b/DCC-Table_example_NCLSI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Projects\1901 NY-INFRA-FOT\DCC\Software\DCCtables\master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D81657-22D3-4376-A164-50A0F2EDAAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C077222D-10D8-41AE-9B10-3D9A0525A419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="3225" windowWidth="25560" windowHeight="14775" xr2:uid="{7B806C36-EFAF-4198-BA2F-F0EE1FD641A5}"/>
+    <workbookView xWindow="1185" yWindow="2100" windowWidth="25560" windowHeight="12915" activeTab="5" xr2:uid="{7B806C36-EFAF-4198-BA2F-F0EE1FD641A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Definitions" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Statements" sheetId="6" r:id="rId4"/>
     <sheet name="Items" sheetId="7" r:id="rId5"/>
     <sheet name="Table2" sheetId="5" r:id="rId6"/>
+    <sheet name="Table2 transposed" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="ColType">Definitions!$A$2:$A$6</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="413">
   <si>
     <t>customerTag</t>
   </si>
@@ -1276,6 +1277,15 @@
   </si>
   <si>
     <t>Source.Weight</t>
+  </si>
+  <si>
+    <t>&lt;xs:enumeration value="</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "/&gt;</t>
+  </si>
+  <si>
+    <t>equipmentClass?</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1481,6 +1491,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1488,7 +1531,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
@@ -1573,6 +1616,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
@@ -1580,7 +1632,445 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE2EFDA"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFCE4D6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D9D9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1649,7 +2139,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1D61B28-1FF3-42F7-84C3-D339206597FD}" name="Table14" displayName="Table14" ref="A1:H6" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B1D61B28-1FF3-42F7-84C3-D339206597FD}" name="Table14" displayName="Table14" ref="A1:H6" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:H6" xr:uid="{B1D61B28-1FF3-42F7-84C3-D339206597FD}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{50EB9A61-D5FF-442A-A238-F83BEEC1CDAB}" name="swID"/>
@@ -1666,7 +2156,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0BCFA805-76BF-4AFE-9513-65BAFBCB25EE}" name="Table13" displayName="Table13" ref="A1:R6" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0BCFA805-76BF-4AFE-9513-65BAFBCB25EE}" name="Table13" displayName="Table13" ref="A1:R6" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:R6" xr:uid="{0BCFA805-76BF-4AFE-9513-65BAFBCB25EE}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{7378B2CC-F29E-41D1-9E44-CB13F033ED00}" name="id"/>
@@ -1693,7 +2183,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC044B5-24CB-4140-A183-70424C80E6A8}" name="Table1" displayName="Table1" ref="A1:I6" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2FC044B5-24CB-4140-A183-70424C80E6A8}" name="Table1" displayName="Table1" ref="A1:I6" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A1:I6" xr:uid="{2FC044B5-24CB-4140-A183-70424C80E6A8}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{9BE8681D-A525-4CE6-BBF0-09C6834C3F35}" name="id"/>
@@ -1707,6 +2197,25 @@
     <tableColumn id="9" xr3:uid="{111BD3A3-C8CE-4455-836A-745437913EA8}" name="Serial number"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{95C9992D-5581-4FD2-BCF4-07ADA433473F}" name="Table4" displayName="Table4" ref="A6:J18" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A6:J18" xr:uid="{95C9992D-5581-4FD2-BCF4-07ADA433473F}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{E50CCB59-2656-4D06-88FA-A3A43B6EA10C}" name="scope" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{0BA10FF6-F6DF-42AB-9FD2-7E273E00C883}" name="dataCategory" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{29FBA0AA-7ADB-49AC-BB86-F4C0A44FF7A6}" name="measurand" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{77F7E2B7-AE37-4E7A-8333-AA18B83468E0}" name="unit" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{8FD4475D-9F67-4049-AD8C-6A3C9A066ED0}" name="humanHeading" dataDxfId="5" dataCellStyle="20% - Accent5"/>
+    <tableColumn id="6" xr3:uid="{CA9110F8-1DF9-4692-83D3-5C71328AC184}" name="data_row1" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{05591E6A-9678-4D4E-A659-FA732E5182E3}" name="data_row2" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{15A0C74D-1590-42BA-9F95-AF50225C012B}" name="data_row3" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{5CE3E847-A938-4A62-9339-D25C78907EAE}" name="data_row4" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{AA3F284D-795E-4757-9B23-3C3D28DAB69E}" name="data_row5" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2007,21 +2516,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F9C957-7C4E-4161-9FBF-0EC69D9D67E3}">
-  <dimension ref="A1:L152"/>
+  <dimension ref="A1:Y152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="47.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:25">
       <c r="A1" s="3" t="s">
         <v>81</v>
       </c>
@@ -2031,11 +2540,11 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="V1" s="3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2045,9 +2554,19 @@
       <c r="C2" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="H2" s="2"/>
+      <c r="W2" t="s">
+        <v>410</v>
+      </c>
+      <c r="X2" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y2" t="str">
+        <f t="shared" ref="Y2:Y33" si="0">W2&amp;C2&amp;X2</f>
+        <v>&lt;xs:enumeration value="Measure.Capacitance "/&gt;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -2057,9 +2576,19 @@
       <c r="C3" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="H3" s="2"/>
+      <c r="W3" t="s">
+        <v>410</v>
+      </c>
+      <c r="X3" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Conductance "/&gt;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -2069,9 +2598,19 @@
       <c r="C4" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="H4" s="2"/>
+      <c r="W4" t="s">
+        <v>410</v>
+      </c>
+      <c r="X4" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Conductivity "/&gt;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2081,18 +2620,38 @@
       <c r="C5" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="H5" s="2"/>
+      <c r="W5" t="s">
+        <v>410</v>
+      </c>
+      <c r="X5" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Current.AC "/&gt;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="H6" s="2"/>
+      <c r="W6" t="s">
+        <v>410</v>
+      </c>
+      <c r="X6" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Current.AC.Sinewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>5</v>
@@ -2100,734 +2659,1964 @@
       <c r="C7" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="H7" s="2"/>
+      <c r="W7" t="s">
+        <v>410</v>
+      </c>
+      <c r="X7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Current.AC.Squarewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="H8" s="2"/>
+      <c r="W8" t="s">
+        <v>410</v>
+      </c>
+      <c r="X8" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Current.AC.Trianglewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="H9" s="2"/>
+      <c r="W9" t="s">
+        <v>410</v>
+      </c>
+      <c r="X9" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Current.DC "/&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="31" t="s">
         <v>286</v>
       </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="H10" s="2"/>
+      <c r="W10" t="s">
+        <v>410</v>
+      </c>
+      <c r="X10" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Density.Mass.Gas "/&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="H11" s="2"/>
+      <c r="W11" t="s">
+        <v>410</v>
+      </c>
+      <c r="X11" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Density.Mass.Liquid "/&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="H12" s="2"/>
+      <c r="W12" t="s">
+        <v>410</v>
+      </c>
+      <c r="X12" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Density.Mass.Solid "/&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="H13" s="2"/>
+      <c r="W13" t="s">
+        <v>410</v>
+      </c>
+      <c r="X13" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Force "/&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="H14" s="2"/>
+      <c r="W14" t="s">
+        <v>410</v>
+      </c>
+      <c r="X14" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Frequency "/&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="H15" s="2"/>
+      <c r="W15" t="s">
+        <v>410</v>
+      </c>
+      <c r="X15" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Frequency.AmplitudeModulation.Rate "/&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="H16" s="2"/>
+      <c r="W16" t="s">
+        <v>410</v>
+      </c>
+      <c r="X16" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Frequency.FrequencyModulation.Deviation "/&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25">
       <c r="B17" t="s">
         <v>71</v>
       </c>
       <c r="C17" s="31" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="18" spans="2:3">
+      <c r="W17" t="s">
+        <v>410</v>
+      </c>
+      <c r="X17" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Frequency.FrequencyModulation.Rate "/&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25">
       <c r="B18" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="31" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
+      <c r="W18" t="s">
+        <v>410</v>
+      </c>
+      <c r="X18" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Frequency.PhaseModulation.Rate "/&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25">
       <c r="B19" t="s">
         <v>75</v>
       </c>
       <c r="C19" s="31" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="20" spans="2:3">
+      <c r="W19" t="s">
+        <v>410</v>
+      </c>
+      <c r="X19" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Humidity.Absolute "/&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25">
       <c r="C20" s="31" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="21" spans="2:3">
+      <c r="W20" t="s">
+        <v>410</v>
+      </c>
+      <c r="X20" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Impedance "/&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25">
       <c r="C21" s="31" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="W21" t="s">
+        <v>410</v>
+      </c>
+      <c r="X21" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Inductance "/&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:25">
       <c r="C22" s="31" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="23" spans="2:3">
+      <c r="W22" t="s">
+        <v>410</v>
+      </c>
+      <c r="X22" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length "/&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:25">
       <c r="C23" s="31" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="W23" t="s">
+        <v>410</v>
+      </c>
+      <c r="X23" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Circumference "/&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25">
       <c r="C24" s="31" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="25" spans="2:3">
+      <c r="W24" t="s">
+        <v>410</v>
+      </c>
+      <c r="X24" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Diameter "/&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25">
       <c r="C25" s="31" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="26" spans="2:3">
+      <c r="W25" t="s">
+        <v>410</v>
+      </c>
+      <c r="X25" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Flatness "/&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25">
       <c r="C26" s="31" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="27" spans="2:3">
+      <c r="W26" t="s">
+        <v>410</v>
+      </c>
+      <c r="X26" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Parallelism "/&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25">
       <c r="C27" s="31" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="28" spans="2:3">
+      <c r="W27" t="s">
+        <v>410</v>
+      </c>
+      <c r="X27" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Perpendicularity "/&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25">
       <c r="C28" s="31" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="29" spans="2:3">
+      <c r="W28" t="s">
+        <v>410</v>
+      </c>
+      <c r="X28" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Roughness "/&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25">
       <c r="C29" s="31" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="30" spans="2:3">
+      <c r="W29" t="s">
+        <v>410</v>
+      </c>
+      <c r="X29" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Roundness "/&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25">
       <c r="C30" s="31" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
+      <c r="W30" t="s">
+        <v>410</v>
+      </c>
+      <c r="X30" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Sphericity "/&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25">
       <c r="C31" s="31" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
+      <c r="W31" t="s">
+        <v>410</v>
+      </c>
+      <c r="X31" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Straightness.Axis "/&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25">
       <c r="C32" s="31" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="33" spans="3:3">
+      <c r="W32" t="s">
+        <v>410</v>
+      </c>
+      <c r="X32" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Form.Straightness.Surface "/&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="3:25">
       <c r="C33" s="31" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="34" spans="3:3">
+      <c r="W33" t="s">
+        <v>410</v>
+      </c>
+      <c r="X33" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;xs:enumeration value="Measure.Length.Radius "/&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="3:25">
       <c r="C34" s="31" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="35" spans="3:3">
+      <c r="W34" t="s">
+        <v>410</v>
+      </c>
+      <c r="X34" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" ref="Y34:Y65" si="1">W34&amp;C34&amp;X34</f>
+        <v>&lt;xs:enumeration value="Measure.Mass.Apparent "/&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="3:25">
       <c r="C35" s="31" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="36" spans="3:3">
+      <c r="W35" t="s">
+        <v>410</v>
+      </c>
+      <c r="X35" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Mass.Conventional "/&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="3:25">
       <c r="C36" s="31" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="37" spans="3:3">
+      <c r="W36" t="s">
+        <v>410</v>
+      </c>
+      <c r="X36" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Mass.True "/&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="3:25">
       <c r="C37" s="31" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="38" spans="3:3">
+      <c r="W37" t="s">
+        <v>410</v>
+      </c>
+      <c r="X37" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Phase.PhaseModulation "/&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="3:25">
       <c r="C38" s="31" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="39" spans="3:3">
+      <c r="W38" t="s">
+        <v>410</v>
+      </c>
+      <c r="X38" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Phase.ReflectionFactor.RF "/&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="3:25">
       <c r="C39" s="31" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
+      <c r="W39" t="s">
+        <v>410</v>
+      </c>
+      <c r="X39" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Phase.TransmissionFactor "/&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="3:25">
       <c r="C40" s="31" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="41" spans="3:3">
+      <c r="W40" t="s">
+        <v>410</v>
+      </c>
+      <c r="X40" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.PhaseNoise.SideBand "/&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="3:25">
       <c r="C41" s="31" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="42" spans="3:3">
+      <c r="W41" t="s">
+        <v>410</v>
+      </c>
+      <c r="X41" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Power.RF.Sinewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="3:25">
       <c r="C42" s="31" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="43" spans="3:3">
+      <c r="W42" t="s">
+        <v>410</v>
+      </c>
+      <c r="X42" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Pressure.Hydraulic.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="3:25">
       <c r="C43" s="31" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="44" spans="3:3">
+      <c r="W43" t="s">
+        <v>410</v>
+      </c>
+      <c r="X43" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Pressure.Pneumatic.Absolute.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="3:25">
       <c r="C44" s="31" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="45" spans="3:3">
+      <c r="W44" t="s">
+        <v>410</v>
+      </c>
+      <c r="X44" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Pressure.Pneumatic.Differential.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="3:25">
       <c r="C45" s="31" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="46" spans="3:3">
+      <c r="W45" t="s">
+        <v>410</v>
+      </c>
+      <c r="X45" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Pressure.Pneumatic.Gage.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="3:25">
       <c r="C46" s="31" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="47" spans="3:3">
+      <c r="W46" t="s">
+        <v>410</v>
+      </c>
+      <c r="X46" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.AmplitudeModulation "/&gt;</v>
+      </c>
+    </row>
+    <row r="47" spans="3:25">
       <c r="C47" s="31" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="48" spans="3:3">
+      <c r="W47" t="s">
+        <v>410</v>
+      </c>
+      <c r="X47" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Density.Mass "/&gt;</v>
+      </c>
+    </row>
+    <row r="48" spans="3:25">
       <c r="C48" s="31" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="49" spans="3:3">
+      <c r="W48" t="s">
+        <v>410</v>
+      </c>
+      <c r="X48" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Humidity.Relative "/&gt;</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25">
       <c r="C49" s="31" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="50" spans="3:3">
+      <c r="W49" t="s">
+        <v>410</v>
+      </c>
+      <c r="X49" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Humidity.Specific "/&gt;</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25">
       <c r="C50" s="31" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="51" spans="3:3">
+      <c r="W50" t="s">
+        <v>410</v>
+      </c>
+      <c r="X50" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Power.ReflectionFactor.RF "/&gt;</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25">
       <c r="C51" s="31" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="52" spans="3:3">
+      <c r="W51" t="s">
+        <v>410</v>
+      </c>
+      <c r="X51" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Power.RF.Sinewave.Delta.Frequency "/&gt;</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25">
       <c r="C52" s="31" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="53" spans="3:3">
+      <c r="W52" t="s">
+        <v>410</v>
+      </c>
+      <c r="X52" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Power.RF.Sinewave.Delta.Power "/&gt;</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25">
       <c r="C53" s="31" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="54" spans="3:3">
+      <c r="W53" t="s">
+        <v>410</v>
+      </c>
+      <c r="X53" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Power.TransmissionFactor "/&gt;</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25">
       <c r="C54" s="31" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="55" spans="3:3">
+      <c r="W54" t="s">
+        <v>410</v>
+      </c>
+      <c r="X54" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Torque "/&gt;</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25">
       <c r="C55" s="31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="56" spans="3:3">
+      <c r="W55" t="s">
+        <v>410</v>
+      </c>
+      <c r="X55" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Voltage.AC.Ripple.OnDC "/&gt;</v>
+      </c>
+    </row>
+    <row r="56" spans="3:25">
       <c r="C56" s="31" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="57" spans="3:3">
+      <c r="W56" t="s">
+        <v>410</v>
+      </c>
+      <c r="X56" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Voltage.AC.Sinewave.Delta.Frequency "/&gt;</v>
+      </c>
+    </row>
+    <row r="57" spans="3:25">
       <c r="C57" s="31" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="58" spans="3:3">
+      <c r="W57" t="s">
+        <v>410</v>
+      </c>
+      <c r="X57" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Ratio.Voltage.AC.Sinewave.Delta.Voltage "/&gt;</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25">
       <c r="C58" s="31" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="59" spans="3:3">
+      <c r="W58" t="s">
+        <v>410</v>
+      </c>
+      <c r="X58" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Resistance "/&gt;</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25">
       <c r="C59" s="31" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="60" spans="3:3">
+      <c r="W59" t="s">
+        <v>410</v>
+      </c>
+      <c r="X59" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Temperature "/&gt;</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25">
       <c r="C60" s="31" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="61" spans="3:3">
+      <c r="W60" t="s">
+        <v>410</v>
+      </c>
+      <c r="X60" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Temperature.Radiometric "/&gt;</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25">
       <c r="C61" s="31" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="62" spans="3:3">
+      <c r="W61" t="s">
+        <v>410</v>
+      </c>
+      <c r="X61" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Temperature.Simulated.PRT "/&gt;</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25">
       <c r="C62" s="31" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="63" spans="3:3">
+      <c r="W62" t="s">
+        <v>410</v>
+      </c>
+      <c r="X62" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Temperature.Simulated.RTD "/&gt;</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25">
       <c r="C63" s="31" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="64" spans="3:3">
+      <c r="W63" t="s">
+        <v>410</v>
+      </c>
+      <c r="X63" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Temperature.Simulated.Thermocouple "/&gt;</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25">
       <c r="C64" s="31" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="65" spans="3:3">
+      <c r="W64" t="s">
+        <v>410</v>
+      </c>
+      <c r="X64" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Time.Transition "/&gt;</v>
+      </c>
+    </row>
+    <row r="65" spans="3:25">
       <c r="C65" s="31" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="66" spans="3:3">
+      <c r="W65" t="s">
+        <v>410</v>
+      </c>
+      <c r="X65" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y65" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;xs:enumeration value="Measure.Time.UTC "/&gt;</v>
+      </c>
+    </row>
+    <row r="66" spans="3:25">
       <c r="C66" s="31" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="67" spans="3:3">
+      <c r="W66" t="s">
+        <v>410</v>
+      </c>
+      <c r="X66" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y66" t="str">
+        <f t="shared" ref="Y66:Y97" si="2">W66&amp;C66&amp;X66</f>
+        <v>&lt;xs:enumeration value="Measure.Torque "/&gt;</v>
+      </c>
+    </row>
+    <row r="67" spans="3:25">
       <c r="C67" s="31" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="68" spans="3:3">
+      <c r="W67" t="s">
+        <v>410</v>
+      </c>
+      <c r="X67" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y67" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Torque.HydraulicPressure "/&gt;</v>
+      </c>
+    </row>
+    <row r="68" spans="3:25">
       <c r="C68" s="31" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="69" spans="3:3">
+      <c r="W68" t="s">
+        <v>410</v>
+      </c>
+      <c r="X68" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y68" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Voltage.AC "/&gt;</v>
+      </c>
+    </row>
+    <row r="69" spans="3:25">
       <c r="C69" s="31" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="70" spans="3:3">
+      <c r="W69" t="s">
+        <v>410</v>
+      </c>
+      <c r="X69" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y69" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Voltage.AC.Ripple.OnDC "/&gt;</v>
+      </c>
+    </row>
+    <row r="70" spans="3:25">
       <c r="C70" s="31" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="71" spans="3:3">
+      <c r="W70" t="s">
+        <v>410</v>
+      </c>
+      <c r="X70" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y70" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Voltage.AC.Sinewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="71" spans="3:25">
       <c r="C71" s="31" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="72" spans="3:3">
+      <c r="W71" t="s">
+        <v>410</v>
+      </c>
+      <c r="X71" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y71" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Voltage.AC.Squarewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="72" spans="3:25">
       <c r="C72" s="31" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="73" spans="3:3">
+      <c r="W72" t="s">
+        <v>410</v>
+      </c>
+      <c r="X72" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y72" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Voltage.AC.Trianglewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="73" spans="3:25">
       <c r="C73" s="31" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="74" spans="3:3">
+      <c r="W73" t="s">
+        <v>410</v>
+      </c>
+      <c r="X73" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y73" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Voltage.DC "/&gt;</v>
+      </c>
+    </row>
+    <row r="74" spans="3:25">
       <c r="C74" s="31" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="75" spans="3:3">
+      <c r="W74" t="s">
+        <v>410</v>
+      </c>
+      <c r="X74" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y74" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Measure.Weight "/&gt;</v>
+      </c>
+    </row>
+    <row r="75" spans="3:25">
       <c r="C75" s="31" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="76" spans="3:3">
+      <c r="W75" t="s">
+        <v>410</v>
+      </c>
+      <c r="X75" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y75" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Capacitance "/&gt;</v>
+      </c>
+    </row>
+    <row r="76" spans="3:25">
       <c r="C76" s="31" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="77" spans="3:3">
+      <c r="W76" t="s">
+        <v>410</v>
+      </c>
+      <c r="X76" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y76" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Conductance "/&gt;</v>
+      </c>
+    </row>
+    <row r="77" spans="3:25">
       <c r="C77" s="31" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="78" spans="3:3">
+      <c r="W77" t="s">
+        <v>410</v>
+      </c>
+      <c r="X77" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y77" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Conductivity "/&gt;</v>
+      </c>
+    </row>
+    <row r="78" spans="3:25">
       <c r="C78" s="31" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="79" spans="3:3">
+      <c r="W78" t="s">
+        <v>410</v>
+      </c>
+      <c r="X78" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y78" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Current.AC.Sinewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="79" spans="3:25">
       <c r="C79" s="31" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="80" spans="3:3">
+      <c r="W79" t="s">
+        <v>410</v>
+      </c>
+      <c r="X79" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y79" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Current.AC.Squarewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="80" spans="3:25">
       <c r="C80" s="31" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="81" spans="3:3">
+      <c r="W80" t="s">
+        <v>410</v>
+      </c>
+      <c r="X80" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y80" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Current.AC.Trianglewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="81" spans="3:25">
       <c r="C81" s="31" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="82" spans="3:3">
+      <c r="W81" t="s">
+        <v>410</v>
+      </c>
+      <c r="X81" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y81" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Current.DC "/&gt;</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25">
       <c r="C82" s="31" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="83" spans="3:3">
+      <c r="W82" t="s">
+        <v>410</v>
+      </c>
+      <c r="X82" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y82" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Density.Mass.Gas "/&gt;</v>
+      </c>
+    </row>
+    <row r="83" spans="3:25">
       <c r="C83" s="31" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="84" spans="3:3">
+      <c r="W83" t="s">
+        <v>410</v>
+      </c>
+      <c r="X83" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y83" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Density.Mass.Liquid "/&gt;</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25">
       <c r="C84" s="31" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="85" spans="3:3">
+      <c r="W84" t="s">
+        <v>410</v>
+      </c>
+      <c r="X84" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y84" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Density.Mass.Solid "/&gt;</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25">
       <c r="C85" s="31" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="86" spans="3:3">
+      <c r="W85" t="s">
+        <v>410</v>
+      </c>
+      <c r="X85" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y85" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Force "/&gt;</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25">
       <c r="C86" s="31" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="87" spans="3:3">
+      <c r="W86" t="s">
+        <v>410</v>
+      </c>
+      <c r="X86" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y86" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Frequency.AC.Squarewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25">
       <c r="C87" s="31" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="88" spans="3:3">
+      <c r="W87" t="s">
+        <v>410</v>
+      </c>
+      <c r="X87" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y87" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Frequency.Arbitrary.Cardiograph "/&gt;</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25">
       <c r="C88" s="31" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="89" spans="3:3">
+      <c r="W88" t="s">
+        <v>410</v>
+      </c>
+      <c r="X88" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y88" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Humidity.Absolute "/&gt;</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25">
       <c r="C89" s="31" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="90" spans="3:3">
+      <c r="W89" t="s">
+        <v>410</v>
+      </c>
+      <c r="X89" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y89" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Impedance "/&gt;</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25">
       <c r="C90" s="31" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="91" spans="3:3">
+      <c r="W90" t="s">
+        <v>410</v>
+      </c>
+      <c r="X90" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y90" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Inductance "/&gt;</v>
+      </c>
+    </row>
+    <row r="91" spans="3:25">
       <c r="C91" s="31" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="92" spans="3:3">
+      <c r="W91" t="s">
+        <v>410</v>
+      </c>
+      <c r="X91" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y91" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Length "/&gt;</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25">
       <c r="C92" s="31" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="93" spans="3:3">
+      <c r="W92" t="s">
+        <v>410</v>
+      </c>
+      <c r="X92" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y92" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Length.Circumference "/&gt;</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25">
       <c r="C93" s="31" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="94" spans="3:3">
+      <c r="W93" t="s">
+        <v>410</v>
+      </c>
+      <c r="X93" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y93" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Length.Diameter "/&gt;</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25">
       <c r="C94" s="31" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="95" spans="3:3">
+      <c r="W94" t="s">
+        <v>410</v>
+      </c>
+      <c r="X94" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y94" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Length.Form.Perpendicularity "/&gt;</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25">
       <c r="C95" s="31" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="96" spans="3:3">
+      <c r="W95" t="s">
+        <v>410</v>
+      </c>
+      <c r="X95" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y95" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Length.Form.Roundness "/&gt;</v>
+      </c>
+    </row>
+    <row r="96" spans="3:25">
       <c r="C96" s="31" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="97" spans="3:3">
+      <c r="W96" t="s">
+        <v>410</v>
+      </c>
+      <c r="X96" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y96" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Length.Form.Sphericity "/&gt;</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25">
       <c r="C97" s="31" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="98" spans="3:3">
+      <c r="W97" t="s">
+        <v>410</v>
+      </c>
+      <c r="X97" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y97" t="str">
+        <f t="shared" si="2"/>
+        <v>&lt;xs:enumeration value="Source.Length.Form.Straightness.Surrface "/&gt;</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25">
       <c r="C98" s="31" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="99" spans="3:3">
+      <c r="W98" t="s">
+        <v>410</v>
+      </c>
+      <c r="X98" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y98" t="str">
+        <f t="shared" ref="Y98:Y129" si="3">W98&amp;C98&amp;X98</f>
+        <v>&lt;xs:enumeration value="Source.Length.Radius "/&gt;</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25">
       <c r="C99" s="31" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="100" spans="3:3">
+      <c r="W99" t="s">
+        <v>410</v>
+      </c>
+      <c r="X99" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y99" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Mass.Apparent "/&gt;</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25">
       <c r="C100" s="31" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="101" spans="3:3">
+      <c r="W100" t="s">
+        <v>410</v>
+      </c>
+      <c r="X100" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y100" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Mass.Conventional "/&gt;</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25">
       <c r="C101" s="31" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="102" spans="3:3">
+      <c r="W101" t="s">
+        <v>410</v>
+      </c>
+      <c r="X101" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y101" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Mass.True "/&gt;</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25">
       <c r="C102" s="31" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="103" spans="3:3">
+      <c r="W102" t="s">
+        <v>410</v>
+      </c>
+      <c r="X102" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y102" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Period.Marker "/&gt;</v>
+      </c>
+    </row>
+    <row r="103" spans="3:25">
       <c r="C103" s="31" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="104" spans="3:3">
+      <c r="W103" t="s">
+        <v>410</v>
+      </c>
+      <c r="X103" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y103" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Period.Squarewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="104" spans="3:25">
       <c r="C104" s="31" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="105" spans="3:3">
+      <c r="W104" t="s">
+        <v>410</v>
+      </c>
+      <c r="X104" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y104" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Power.AC.Sinewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="105" spans="3:25">
       <c r="C105" s="31" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="106" spans="3:3">
+      <c r="W105" t="s">
+        <v>410</v>
+      </c>
+      <c r="X105" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y105" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Power.AC.Sinewave.Simulated "/&gt;</v>
+      </c>
+    </row>
+    <row r="106" spans="3:25">
       <c r="C106" s="31" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="107" spans="3:3">
+      <c r="W106" t="s">
+        <v>410</v>
+      </c>
+      <c r="X106" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y106" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Power.DC.Simulated "/&gt;</v>
+      </c>
+    </row>
+    <row r="107" spans="3:25">
       <c r="C107" s="31" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="108" spans="3:3">
+      <c r="W107" t="s">
+        <v>410</v>
+      </c>
+      <c r="X107" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y107" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Power.Noise.Terminated "/&gt;</v>
+      </c>
+    </row>
+    <row r="108" spans="3:25">
       <c r="C108" s="31" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="109" spans="3:3">
+      <c r="W108" t="s">
+        <v>410</v>
+      </c>
+      <c r="X108" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y108" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Power.RF.Sinewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="109" spans="3:25">
       <c r="C109" s="31" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="110" spans="3:3">
+      <c r="W109" t="s">
+        <v>410</v>
+      </c>
+      <c r="X109" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y109" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Pressure.Hydraulic.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="110" spans="3:25">
       <c r="C110" s="31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="111" spans="3:3">
+      <c r="W110" t="s">
+        <v>410</v>
+      </c>
+      <c r="X110" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y110" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Pressure.Pneumatic.Absolute.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="111" spans="3:25">
       <c r="C111" s="31" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="112" spans="3:3">
+      <c r="W111" t="s">
+        <v>410</v>
+      </c>
+      <c r="X111" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y111" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Pressure.Pneumatic.Differential.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="112" spans="3:25">
       <c r="C112" s="31" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="113" spans="3:3">
+      <c r="W112" t="s">
+        <v>410</v>
+      </c>
+      <c r="X112" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y112" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Pressure.Pneumatic.Gage.Static "/&gt;</v>
+      </c>
+    </row>
+    <row r="113" spans="3:25">
       <c r="C113" s="31" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="114" spans="3:3">
+      <c r="W113" t="s">
+        <v>410</v>
+      </c>
+      <c r="X113" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y113" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Ratio.AmplitudeModulation "/&gt;</v>
+      </c>
+    </row>
+    <row r="114" spans="3:25">
       <c r="C114" s="31" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="115" spans="3:3">
+      <c r="W114" t="s">
+        <v>410</v>
+      </c>
+      <c r="X114" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y114" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Ratio.Humidity.Relative "/&gt;</v>
+      </c>
+    </row>
+    <row r="115" spans="3:25">
       <c r="C115" s="31" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="116" spans="3:3">
+      <c r="W115" t="s">
+        <v>410</v>
+      </c>
+      <c r="X115" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y115" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Ratio.Humidity.Specific "/&gt;</v>
+      </c>
+    </row>
+    <row r="116" spans="3:25">
       <c r="C116" s="31" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="117" spans="3:3">
+      <c r="W116" t="s">
+        <v>410</v>
+      </c>
+      <c r="X116" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y116" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Ratio.Power.RF.Sinewave.Delta.Frequency "/&gt;</v>
+      </c>
+    </row>
+    <row r="117" spans="3:25">
       <c r="C117" s="31" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="118" spans="3:3">
+      <c r="W117" t="s">
+        <v>410</v>
+      </c>
+      <c r="X117" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y117" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Ratio.Voltage.AC.Sinewave.Delta.Frequency "/&gt;</v>
+      </c>
+    </row>
+    <row r="118" spans="3:25">
       <c r="C118" s="31" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="119" spans="3:3">
+      <c r="W118" t="s">
+        <v>410</v>
+      </c>
+      <c r="X118" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y118" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Ratio.Voltage.AC.Sinewave.Delta.Voltage "/&gt;</v>
+      </c>
+    </row>
+    <row r="119" spans="3:25">
       <c r="C119" s="31" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="120" spans="3:3">
+      <c r="W119" t="s">
+        <v>410</v>
+      </c>
+      <c r="X119" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y119" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Resistance "/&gt;</v>
+      </c>
+    </row>
+    <row r="120" spans="3:25">
       <c r="C120" s="31" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="121" spans="3:3">
+      <c r="W120" t="s">
+        <v>410</v>
+      </c>
+      <c r="X120" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y120" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Temperature "/&gt;</v>
+      </c>
+    </row>
+    <row r="121" spans="3:25">
       <c r="C121" s="31" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="122" spans="3:3">
+      <c r="W121" t="s">
+        <v>410</v>
+      </c>
+      <c r="X121" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y121" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Temperature.FixedPoint "/&gt;</v>
+      </c>
+    </row>
+    <row r="122" spans="3:25">
       <c r="C122" s="31" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="123" spans="3:3">
+      <c r="W122" t="s">
+        <v>410</v>
+      </c>
+      <c r="X122" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y122" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Temperature.Radiometric "/&gt;</v>
+      </c>
+    </row>
+    <row r="123" spans="3:25">
       <c r="C123" s="31" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="124" spans="3:3">
+      <c r="W123" t="s">
+        <v>410</v>
+      </c>
+      <c r="X123" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y123" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Temperature.Simulated.PRT "/&gt;</v>
+      </c>
+    </row>
+    <row r="124" spans="3:25">
       <c r="C124" s="31" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="125" spans="3:3">
+      <c r="W124" t="s">
+        <v>410</v>
+      </c>
+      <c r="X124" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y124" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Temperature.Simulated.RTD "/&gt;</v>
+      </c>
+    </row>
+    <row r="125" spans="3:25">
       <c r="C125" s="31" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="126" spans="3:3">
+      <c r="W125" t="s">
+        <v>410</v>
+      </c>
+      <c r="X125" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y125" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Temperature.Simulated.Thermocouple "/&gt;</v>
+      </c>
+    </row>
+    <row r="126" spans="3:25">
       <c r="C126" s="31" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="127" spans="3:3">
+      <c r="W126" t="s">
+        <v>410</v>
+      </c>
+      <c r="X126" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y126" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Time.Marker "/&gt;</v>
+      </c>
+    </row>
+    <row r="127" spans="3:25">
       <c r="C127" s="31" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="128" spans="3:3">
+      <c r="W127" t="s">
+        <v>410</v>
+      </c>
+      <c r="X127" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y127" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Torque "/&gt;</v>
+      </c>
+    </row>
+    <row r="128" spans="3:25">
       <c r="C128" s="31" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="129" spans="3:3">
+      <c r="W128" t="s">
+        <v>410</v>
+      </c>
+      <c r="X128" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y128" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Voltage.AC.Sinewave "/&gt;</v>
+      </c>
+    </row>
+    <row r="129" spans="3:25">
       <c r="C129" s="31" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="130" spans="3:3">
+      <c r="W129" t="s">
+        <v>410</v>
+      </c>
+      <c r="X129" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y129" t="str">
+        <f t="shared" si="3"/>
+        <v>&lt;xs:enumeration value="Source.Voltage.DC "/&gt;</v>
+      </c>
+    </row>
+    <row r="130" spans="3:25">
       <c r="C130" s="31" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="131" spans="3:3">
+    <row r="131" spans="3:25">
       <c r="C131" s="31" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="3:3">
+    <row r="132" spans="3:25">
       <c r="C132" s="31" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="3:3">
+    <row r="133" spans="3:25">
       <c r="C133" s="31" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="3:3">
+    <row r="134" spans="3:25">
       <c r="C134" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="3:3">
+    <row r="135" spans="3:25">
       <c r="C135" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="3:3">
+    <row r="136" spans="3:25">
       <c r="C136" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="3:3">
+    <row r="137" spans="3:25">
       <c r="C137" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="3:3">
+    <row r="138" spans="3:25">
       <c r="C138" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="3:3">
+    <row r="139" spans="3:25">
       <c r="C139" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="3:3">
+    <row r="140" spans="3:25">
       <c r="C140" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="3:3">
+    <row r="141" spans="3:25">
       <c r="C141" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="3:3">
+    <row r="142" spans="3:25">
       <c r="C142" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="3:3">
+    <row r="143" spans="3:25">
       <c r="C143" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="144" spans="3:3">
+    <row r="144" spans="3:25">
       <c r="C144" t="s">
         <v>19</v>
       </c>
@@ -3020,11 +4809,11 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.36328125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3674,16 +5463,16 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" customWidth="1"/>
-    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -3729,26 +5518,26 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3825,16 +5614,16 @@
       <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="7" max="7" width="24.7265625" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-    <col min="9" max="9" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3879,25 +5668,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C24526-8286-4257-8B46-E195D4F721E3}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3980,7 +5769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="22">
+    <row r="7" spans="1:13" ht="23.25">
       <c r="A7" s="1" t="s">
         <v>78</v>
       </c>
@@ -4021,7 +5810,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="22">
+    <row r="8" spans="1:13" ht="23.25">
       <c r="A8" s="1" t="s">
         <v>77</v>
       </c>
@@ -4062,7 +5851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="23.25">
       <c r="A9" s="10" t="s">
         <v>61</v>
       </c>
@@ -4099,7 +5888,7 @@
       </c>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="32.5">
+    <row r="10" spans="1:13" ht="45.75">
       <c r="A10" s="11" t="s">
         <v>60</v>
       </c>
@@ -4370,4 +6159,509 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6B25188-2176-4A7A-ACFF-A482D6C30771}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="27">
+        <f>COUNTA(A6:A1048576)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="27">
+        <f>COUNTA(#REF!)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18">
+        <v>25</v>
+      </c>
+      <c r="I8" s="18">
+        <v>15</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="19">
+        <f>ROUND(F10+273.15,2)</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="G9" s="19">
+        <f>ROUND(G10+273.15,2)</f>
+        <v>288.16000000000003</v>
+      </c>
+      <c r="H9" s="19">
+        <f>ROUND(H10+273.15,2)</f>
+        <v>298.17</v>
+      </c>
+      <c r="I9" s="19">
+        <f>ROUND(I10+273.15,2)</f>
+        <v>288.16000000000003</v>
+      </c>
+      <c r="J9" s="19">
+        <f>ROUND(J10+273.15,2)</f>
+        <v>273.16000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="G10" s="19">
+        <v>15.01</v>
+      </c>
+      <c r="H10" s="19">
+        <v>25.02</v>
+      </c>
+      <c r="I10" s="19">
+        <v>15.01</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="H11" s="9">
+        <v>25.2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="9">
+        <f>ROUND(F11-F10,1)</f>
+        <v>-0.1</v>
+      </c>
+      <c r="G12" s="9">
+        <f>ROUND(G11-G10,1)</f>
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="9">
+        <f>ROUND(H11-H10,1)</f>
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="9">
+        <f>ROUND(I11-I10,1)</f>
+        <v>0.3</v>
+      </c>
+      <c r="J12" s="9">
+        <f>ROUND(J11-J10,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A13" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="G13" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="25">
+        <v>0.05</v>
+      </c>
+      <c r="J13" s="25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A14" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="26">
+        <v>2</v>
+      </c>
+      <c r="G14" s="26">
+        <v>2</v>
+      </c>
+      <c r="H14" s="26">
+        <v>2</v>
+      </c>
+      <c r="I14" s="26">
+        <v>2</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A17" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8">
+        <v>3</v>
+      </c>
+      <c r="I17" s="8">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.25" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B18" xr:uid="{00AD19A5-5C2F-4E54-9F91-F0B84E680DEF}">
+      <formula1>MetaType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A18" xr:uid="{76DC74D1-F374-47BB-908E-028BA7705ECA}">
+      <formula1>ColType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C18" xr:uid="{335455F6-6CE5-4C93-BAC6-B9D3D48AED66}">
+      <formula1>MeasurandType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>